--- a/biology/Botanique/Hosta_venusta/Hosta_venusta.xlsx
+++ b/biology/Botanique/Hosta_venusta/Hosta_venusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hosta venusta est une espèce de plantes à fleurs de la famille des   Asparagacées, originaire de l'île de Jeju en Corée du Sud, avec quelques populations dans le centre du Japon[1],[2]. Il peut provenir de populations isolées de Hosta minor sur Jeju remontant à la dernière période glaciaire[3]. C'est un des plus petits hostas et il est résistant au froid jusqu'à la zone 3 de l'USDA. Il tolère l'ombre et convient bien aux rocailles, aux bordures et comme couvre-sol[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hosta venusta est une espèce de plantes à fleurs de la famille des   Asparagacées, originaire de l'île de Jeju en Corée du Sud, avec quelques populations dans le centre du Japon,. Il peut provenir de populations isolées de Hosta minor sur Jeju remontant à la dernière période glaciaire. C'est un des plus petits hostas et il est résistant au froid jusqu'à la zone 3 de l'USDA. Il tolère l'ombre et convient bien aux rocailles, aux bordures et comme couvre-sol.
 </t>
         </is>
       </c>
